--- a/Code_Smell_comparison.xlsx
+++ b/Code_Smell_comparison.xlsx
@@ -142,7 +142,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +473,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Clean Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Code Smell (March)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Code Smell (April)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Code Smell Difference</t>
         </is>
@@ -490,81 +495,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>173</v>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-corporatewebsite</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>-51</v>
+        <v>571</v>
+      </c>
+      <c r="D2" t="n">
+        <v>507</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>-64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>122</v>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>react-ossc-business</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>173</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>51</v>
+        <v>1530</v>
+      </c>
+      <c r="D3" t="n">
+        <v>589</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>596</v>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>angular-delta-erp</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1490</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>894</v>
+        <v>14087</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13906</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1489</v>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>angular-selisehr-hrm</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>596</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>-893</v>
+        <v>2721</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2649</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14087</v>
+          <t>l3-net-delta-erp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>net-delta-erp</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>13906</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>-181</v>
+        <v>1800</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1688</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-112</v>
       </c>
     </row>
     <row r="7">
@@ -573,142 +603,19 @@
           <t>l3-angular-ipex-business</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>angular-ipex-business</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2190</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>4489</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>2299</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2721</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2649</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>571</v>
-      </c>
-      <c r="C9" t="n">
-        <v>507</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>-64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>l3-net-delta-erp</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1800</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1688</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>-112</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-generic-buyingcenter_AYldbTns_aRx5xCzLsMP</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>375</v>
-      </c>
-      <c r="C11" t="n">
-        <v>229</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>-146</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-generic-buyingcenter_AYldbTns_aRx5xCzLsMP</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>229</v>
-      </c>
-      <c r="C12" t="n">
-        <v>375</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>l3-net-ipex-business</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>597</v>
-      </c>
-      <c r="C13" t="n">
-        <v>534</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>-63</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>l3-net-ipex-business</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>534</v>
-      </c>
-      <c r="C14" t="n">
-        <v>597</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1530</v>
-      </c>
-      <c r="C15" t="n">
-        <v>589</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>-941</v>
       </c>
     </row>
   </sheetData>

--- a/Code_Smell_comparison.xlsx
+++ b/Code_Smell_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,7 +142,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -452,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,20 +473,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Clean Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Code Smell (March)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Code Smell (April)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Code Smell Difference</t>
         </is>
@@ -495,131 +500,5335 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>571</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>net-finsy-business</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>507</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>-64</v>
+        <v>2098</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+          <t>SELISEdigitalplatforms_l1-net-pds-legacy_AYk-u70K_aRx5xCzLrxD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>react-ossc-business</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1530</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>net-pds-legacy</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>589</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>-941</v>
+        <v>249</v>
+      </c>
+      <c r="E3" t="n">
+        <v>249</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14087</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>angular-ipex-upload</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>13906</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>-181</v>
+        <v>2943</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2945</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l1-net-generic-sequence_AYmIGH5g_aRx5xCzLs6I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2721</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>net-generic-sequence</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>2649</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>-72</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-net-delta-erp</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-zuko-website_AY8LY2j5gH6yUMlbh640</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>net-delta-erp</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1800</v>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>wordpress-zuko-website</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>1688</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>-112</v>
+        <v>402</v>
+      </c>
+      <c r="E6" t="n">
+        <v>402</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>SELISEdigitalplatforms_l3-flutter-vicafe-loyalty_AZEdB_ArgH6yUMlbiARI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>flutter-vicafe-loyalty</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-scheduler_AYk6MwiV_aRx5xCzLrr8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>net-generic-scheduler</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>l3-net-scert-business</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>net-scert-business</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2092</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2092</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-subway-kiosk_46da1eed-3e19-4df1-97dd-1cd60bfaa498</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>angular-subway-kiosk</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>272</v>
+      </c>
+      <c r="E10" t="n">
+        <v>272</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-igb2b-myecohub_18f8f4e4-cb01-4108-a3ef-947bb532d91d</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>wordpress-igb2b-myecohub</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>103</v>
+      </c>
+      <c r="E11" t="n">
+        <v>103</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-credex-website_572d5c52-0f25-4ff1-b2ad-197b02997548</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>wordpress-credex-website</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>977</v>
+      </c>
+      <c r="E12" t="n">
+        <v>977</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>react-ronreload-frontend</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5964</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5987</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>l3-angular-business-generali</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>angular-business-generali</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1237</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1237</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-subway-pos_557b8fb9-1515-451d-ae76-0e0a5cdc1d65</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>angular-subway-pos</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>448</v>
+      </c>
+      <c r="E15" t="n">
+        <v>448</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>l3-net-business-ontrex</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>net-business-ontrex</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>l3-angular-crm-sko</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>angular-crm-sko</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9951</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9974</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-nextjs-osmthomedxv-business_AY3uxOB4QHRMk2aGF-mO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>nextjs-osmthomedxv-business</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>210</v>
+      </c>
+      <c r="E18" t="n">
+        <v>210</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>angular-delta-erp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>14087</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13906</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>net-vorwerk-kiwi</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3963</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3924</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-nextjs-urstamm-business_AY1VG2eoq1y_XrS670xO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>nextjs-urstamm-business</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="n">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-iam-sso_AYk-0qNM_aRx5xCzLrxY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>net-iam-sso</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>43</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-vorwerk-thermomixbenelux_f9195f83-887c-47b0-8dd2-773689fa276e</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>wordpress-vorwerk-thermomixbenelux</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1149</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9897</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9914</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>wordpress-bagelboys-website</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>13707</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13708</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>l3-angular-swica-ud-business</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>angular-swica-ud-business</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>689</v>
+      </c>
+      <c r="E26" t="n">
+        <v>689</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>l3-node-iam-management</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>node-iam-management</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-fnb-inventory_AYleldMv_aRx5xCzLsRt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>net-fnb-inventory</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>565</v>
+      </c>
+      <c r="E28" t="n">
+        <v>565</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-task_AYlJDAmx_aRx5xCzLr9r</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>net-generic-task</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>132</v>
+      </c>
+      <c r="E29" t="n">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-sms_AYk6nvGc_aRx5xCzLruN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>net-generic-sms</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>21</v>
+      </c>
+      <c r="E30" t="n">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_I3-flutter-keeron-mobile_AZEcPb2ogH6yUMlbiAPU</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_I3-flutter-keeron-mobile_AZEcPb2ogH6yUMlbiAPU</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-captcha_AYkmBqwf_aRx5xCzLrcs</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>net-generic-captcha</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>l3-wordpress-vorwerk-eshop</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>wordpress-vorwerk-eshop</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4075</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4075</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>l3-angular-sko-business</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>angular-sko-business</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4924</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4925</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-auditlog_AYk5Y56g_aRx5xCzLro0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>net-generic-auditlog</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-legacy-payment_AYlI3EF__aRx5xCzLr8r</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>net-legacy-payment</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-solidity-urstamm-blockchain_AY1VR2Oyq1y_XrS670x5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>solidity-urstamm-blockchain</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>l3-angular-moveit-business</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>600</v>
+      </c>
+      <c r="E38" t="n">
+        <v>600</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-conveniencehouse-website_b048fbcb-1adf-4661-94f1-ee6540e34457</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>wordpress-conveniencehouse-website</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>103</v>
+      </c>
+      <c r="E39" t="n">
+        <v>103</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>l3-laravel-vicafe-erp</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>laravel-vicafe-erp</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3329</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3373</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-workflow_AYk6V0VQ_aRx5xCzLrsz</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>net-generic-workflow</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>147</v>
+      </c>
+      <c r="E41" t="n">
+        <v>147</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-notification_AYk6d21q_aRx5xCzLrtX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>net-generic-notification</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>120</v>
+      </c>
+      <c r="E42" t="n">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-creolytix-engr_AYqhthUB_aRx5xCzLwlI</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>net-creolytix-engr</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-selise-ordermonkey_d4ff078b-0acc-4ba0-9a84-7068bb787504</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>wordpress-selise-ordermonkey</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>118</v>
+      </c>
+      <c r="E44" t="n">
+        <v>118</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-geolocation_AYkpiiLt_aRx5xCzLrfF</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>net-generic-geolocation</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-sln-package_AYqyIADh_aRx5xCzLw-E</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>net-sln-package</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>409</v>
+      </c>
+      <c r="E46" t="n">
+        <v>409</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-urlshortener_AYk6R9mt_aRx5xCzLrsR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>net-generic-urlshortener</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-sln-query_AYqyXXdS_aRx5xCzLw_E</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>net-sln-query</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>322</v>
+      </c>
+      <c r="E48" t="n">
+        <v>322</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>l3-laravel-vorwerk-middleware</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>laravel-vorwerk-middleware</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>497</v>
+      </c>
+      <c r="E49" t="n">
+        <v>497</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-java-x4t-dex_AYyqtT_D_aRx5xCzL7c3</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>java-x4t-dex</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>266</v>
+      </c>
+      <c r="E50" t="n">
+        <v>266</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-quotinc-business_AZFKxJmzgH6yUMlbiCHb</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>angular-quotinc-business</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3687</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3687</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>l3-angularjs-scbg-business</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>angularjs-scbg-business</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>9163</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9163</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-lim-business_AYsZzdsC_aRx5xCzLysU</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>net-lim-business</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>90</v>
+      </c>
+      <c r="E53" t="n">
+        <v>90</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-iam-appadmin_AYlPgePu_aRx5xCzLsID</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>net-iam-appadmin</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>19</v>
+      </c>
+      <c r="E54" t="n">
+        <v>19</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>l3-net-ipex-business</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>net-ipex-business</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>597</v>
+      </c>
+      <c r="E55" t="n">
+        <v>597</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>net-iam-management</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>173</v>
+      </c>
+      <c r="E56" t="n">
+        <v>173</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-deges-business_AYr-3muC_aRx5xCzLyV</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>_stg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>net-deges-business</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>angular-selisehr-hrm</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2721</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2649</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-iam-mfa_AYk-8ChB_aRx5xCzLryL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>net-iam-mfa</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-contacts_AYlehMgZ_aRx5xCzLsQ2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>net-generic-contacts</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>355</v>
+      </c>
+      <c r="E60" t="n">
+        <v>355</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>l3-net-profond-business</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>net-profond-business</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="n">
+        <v>60</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>l3-net-svg-business</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>net-svg-business</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>16</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>angular-mycareergate-hrm</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2402</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2404</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>l3-net-konshub-business</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>net-konshub-business</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>173</v>
+      </c>
+      <c r="E64" t="n">
+        <v>173</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>laravel-ronreload-backend</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>18799</v>
+      </c>
+      <c r="E65" t="n">
+        <v>18799</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>l1-node-generic-crypto-trading</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>stg-sgx</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>node-generic-crypto-trading</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>246</v>
+      </c>
+      <c r="E66" t="n">
+        <v>246</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-aggregator_AYkqZv4N_aRx5xCzLria</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>net-generic-aggregator</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>l3-java-x4t-scheduler</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>java-x4t-scheduler</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>118</v>
+      </c>
+      <c r="E68" t="n">
+        <v>118</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-iam-organization_AYmHdLfd_aRx5xCzLs2h</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>net-iam-organization</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>51</v>
+      </c>
+      <c r="E69" t="n">
+        <v>51</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-vicafepos-web_AYmHq1HN_aRx5xCzLs4Y</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>angular-vicafepos-web</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>126</v>
+      </c>
+      <c r="E70" t="n">
+        <v>126</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>l3-angularjs-business-wagile</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>angularjs-business-wagile</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-magnethub-business_AYqtjE1B_aRx5xCzLw4c</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>net-magnethub-business</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>470</v>
+      </c>
+      <c r="E72" t="n">
+        <v>470</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-service7000-business_AYwPxn9s_aRx5xCzL4ma</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>net-service7000-business</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>128</v>
+      </c>
+      <c r="E73" t="n">
+        <v>128</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>l3-net-lunge-business</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>net-lunge-business</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>338</v>
+      </c>
+      <c r="E74" t="n">
+        <v>345</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-java-ossc-servicehub_80472a9a-51db-4bac-af2e-b78c5321982b</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>java-ossc-servicehub</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>101</v>
+      </c>
+      <c r="E75" t="n">
+        <v>101</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-messaging_AYk--xWA_aRx5xCzLryg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>net-generic-messaging</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>24</v>
+      </c>
+      <c r="E76" t="n">
+        <v>24</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-arcintegration_AYlPj6GV_aRx5xCzLsIZ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>net-generic-arcintegration</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>l3-laravel-mbm-management</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>laravel-mbm-management</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20409</v>
+      </c>
+      <c r="E78" t="n">
+        <v>20409</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-iam-licensing_AYlPVkZV_aRx5xCzLsHP</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>net-iam-licensing</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>57</v>
+      </c>
+      <c r="E79" t="n">
+        <v>57</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-creolytix-engr_AYrRsYJZ_aRx5xCzLxmn</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>react-creolytix-engr</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>angular-addexpert-hrm</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4194</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4194</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-fnb-configuration_AYlei1CQ_aRx5xCzLsRQ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>net-fnb-configuration</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>266</v>
+      </c>
+      <c r="E82" t="n">
+        <v>266</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-genkiosk-web_AYmG9xwH_aRx5xCzLs0d</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>stg-from-main-aks</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>angular-genkiosk-web</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>256</v>
+      </c>
+      <c r="E83" t="n">
+        <v>256</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>l3-laravel-forlam-silsdialysis</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>laravel-forlam-silsdialysis</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5966</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>642</v>
+      </c>
+      <c r="E85" t="n">
+        <v>648</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>net-iam-management</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>122</v>
+      </c>
+      <c r="E86" t="n">
+        <v>122</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-annanow-hrm_AYyl9OHw_aRx5xCzL7W5</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>net-annanow-hrm</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>327</v>
+      </c>
+      <c r="E87" t="n">
+        <v>327</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>744</v>
+      </c>
+      <c r="E88" t="n">
+        <v>745</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-seliseapp-business_AYmHJvgr_aRx5xCzLs1h</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>net-seliseapp-business</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-java-keeron-admin_62000c5e-2497-4cf9-b812-857e3d240418</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>aws-stg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>java-keeron-admin</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>272</v>
+      </c>
+      <c r="E90" t="n">
+        <v>272</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>l3-net-svcms-business</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>net-svcms-business</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>422</v>
+      </c>
+      <c r="E91" t="n">
+        <v>422</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-nextjs-sam-business_c1b9718d-b7ac-4971-854d-bea08c2bc128</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>nextjs-sam-business</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>222</v>
+      </c>
+      <c r="E92" t="n">
+        <v>222</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-patoro-website_11f4f4d4-12e3-4e6e-a6f6-c3d45c83251f</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>wordpress-patoro-website</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>316</v>
+      </c>
+      <c r="E93" t="n">
+        <v>316</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>angular-gensubway-backoffice</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2325</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>l3-net-coscomp-business</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>net-coscomp-business</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>88</v>
+      </c>
+      <c r="E95" t="n">
+        <v>88</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-dms_AYldgmtT_aRx5xCzLsMh</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>net-generic-dms</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>l3-wordpress-vicafe-eshopsite</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>wordpress-vicafe-eshopsite</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1306</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-calendar_AYmHi4Qf_aRx5xCzLs3h</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>net-generic-calendar</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>67</v>
+      </c>
+      <c r="E98" t="n">
+        <v>67</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>l3-net-misterloo-business</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>net-misterloo-business</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>28</v>
+      </c>
+      <c r="E99" t="n">
+        <v>28</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-vue-inventx-tasktracker_bc44fed7-7fe5-4890-8cd5-dce7ee8f28d9</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vue-inventx-tasktracker</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>48</v>
+      </c>
+      <c r="E100" t="n">
+        <v>48</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-subway-mobile_AZFP1RQogH6yUMlbiCXz</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>angular-subway-mobile</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>351</v>
+      </c>
+      <c r="E101" t="n">
+        <v>351</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>net-generic-signature</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1628</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>l3-angular-decent-ddl</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>angular-decent-ddl</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>804</v>
+      </c>
+      <c r="E103" t="n">
+        <v>804</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>l3-net-ipex-business</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>net-ipex-business</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>534</v>
+      </c>
+      <c r="E104" t="n">
+        <v>534</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-shopify-vorwerk-koboldbenelux_d3960c59-54df-428b-9a54-efe09c2da4d9</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>shopify-vorwerk-koboldbenelux</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>199</v>
+      </c>
+      <c r="E105" t="n">
+        <v>199</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-signature-webhooks_4e616447-41e0-4f2f-8f50-7f8166197715</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>net-signature-webhooks</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-cz</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>angular-sln-cz</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>12641</v>
+      </c>
+      <c r="E107" t="n">
+        <v>12643</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-java-urstamm-business_AY1P-_yIq1y_XrS670q2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>java-urstamm-business</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1862</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-buyingcenter_AYldbTns_aRx5xCzLsMP</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>net-generic-buyingcenter</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>229</v>
+      </c>
+      <c r="E109" t="n">
+        <v>229</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-storage_AYiPqXhO_aRx5xCzLprb</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>net-generic-storage</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>95</v>
+      </c>
+      <c r="E110" t="n">
+        <v>95</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>angular-magnethub-business</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>987</v>
+      </c>
+      <c r="E111" t="n">
+        <v>994</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-meeting-management_c5a45311-d8ab-44fd-a1ec-714e8c151edf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>net-meeting-management</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>339</v>
+      </c>
+      <c r="E112" t="n">
+        <v>339</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>net-generic-signature</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1586</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1586</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>l3-angular-clm-business</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>angular-clm-business</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1398</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1441</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-angular-blocks-project_AYiGtFQ3_aRx5xCzLpkw</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>compose-stg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>angular-blocks-project</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>299</v>
+      </c>
+      <c r="E115" t="n">
+        <v>299</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>wordpress-ibcchur-website</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>5697</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5711</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-languagemanager_AYlO318j_aRx5xCzLsFO</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>net-generic-languagemanager</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>65</v>
+      </c>
+      <c r="E117" t="n">
+        <v>65</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>angular-blocks-configuration</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>596</v>
+      </c>
+      <c r="E118" t="n">
+        <v>596</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>net-clm-business</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>650</v>
+      </c>
+      <c r="E119" t="n">
+        <v>662</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>l3-angularjs-slpc-business</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>angularjs-slpc-business</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>72706</v>
+      </c>
+      <c r="E120" t="n">
+        <v>72706</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-payment_AYk_rSmh_aRx5xCzLr1D</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>net-generic-payment</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>l3-net-blocks-configuration</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>net-blocks-configuration</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>106</v>
+      </c>
+      <c r="E122" t="n">
+        <v>106</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>l3-net-sln-query</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>net-sln-query</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>230</v>
+      </c>
+      <c r="E123" t="n">
+        <v>230</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>l3-angular-konshub-business</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>angular-konshub-business</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>467</v>
+      </c>
+      <c r="E124" t="n">
+        <v>467</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>l3-net-moveit-business</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>net-moveit-business</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-genkiosk-mobile_AYmHAaqf_aRx5xCzLs07</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>angular-genkiosk-mobile</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>389</v>
+      </c>
+      <c r="E126" t="n">
+        <v>389</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-scbg-business_AYqsVwvb_aRx5xCzLw0d</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>net-scbg-business</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2475</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-securestorage_AYlEmpOp_aRx5xCzLr5k</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>net-generic-securestorage</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>l3-angular-scert-business</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>angular-scert-business</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>7011</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7011</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-blocks-configuration_AYq26W8V_aRx5xCzLxGD</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>net-blocks-configuration</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>142</v>
+      </c>
+      <c r="E130" t="n">
+        <v>142</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-sln-business_AYrF3Gcj_aRx5xCzLxQj</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>net-sln-business</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1410</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-nextjs-service7000-business_AY4T_XqbQHRMk2aGF_Ls</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>nextjs-service7000-business</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>l3-net-delta-erp</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>net-delta-erp</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-fccz</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>angular-sln-fccz</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>15131</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15137</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-dictionary_AYk6iAPr_aRx5xCzLrts</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>net-generic-dictionary</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>EcoHub-Essential_EcoHub-Webpage_a3020f4f-470f-42d8-b375-7cdbb598fa74</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>EcoHub-Essential_EcoHub-Webpage_a3020f4f-470f-42d8-b375-7cdbb598fa74</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>265</v>
+      </c>
+      <c r="E136" t="n">
+        <v>265</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-sunrise-backoffice_AYmHfjHb_aRx5xCzLs25</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>angular-sunrise-backoffice</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>444</v>
+      </c>
+      <c r="E137" t="n">
+        <v>444</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-java-keeron-admin_62000c5e-2497-4cf9-b812-857e3d240418</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>java-keeron-admin</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>264</v>
+      </c>
+      <c r="E138" t="n">
+        <v>264</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-sunrisekiosk-web_AYmHhz2h_aRx5xCzLs3S</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>angular-sunrisekiosk-web</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>31</v>
+      </c>
+      <c r="E139" t="n">
+        <v>31</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-credex-calculator_9d7c0aec-2b67-492b-acad-a53bf771e184</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>wordpress-credex-calculator</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>l3-net-delta-crm</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>net-delta-crm</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>253</v>
+      </c>
+      <c r="E141" t="n">
+        <v>259</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-obsolete-securetoken_AYk-h_i0_aRx5xCzLrv6</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>net-obsolete-securetoken</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-reports_AYlPH5Se_aRx5xCzLsGM</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>net-generic-reports</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>35</v>
+      </c>
+      <c r="E143" t="n">
+        <v>35</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-generic-linktoaction_AYk-4Emj_aRx5xCzLrxw</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>net-generic-linktoaction</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>l3-net-amberg-engr</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>net-amberg-engr</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>399</v>
+      </c>
+      <c r="E145" t="n">
+        <v>399</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-selisehr-hrm_AYyLuGN-_aRx5xCzL7Dd</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>net-selisehr-hrm</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>776</v>
+      </c>
+      <c r="E146" t="n">
+        <v>776</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-legacy-calendarsync_AYk_lpkb_aRx5xCzLr0l</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>net-legacy-calendarsync</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>105</v>
+      </c>
+      <c r="E147" t="n">
+        <v>105</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>l3-angular-ipex-business</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>angular-ipex-business</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>2190</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D148" t="n">
         <v>4489</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>2299</v>
+      <c r="E148" t="n">
+        <v>4489</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>l3-angular-business-ontrex</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>angular-business-ontrex</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1683</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1683</v>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-legacy-pdf_AYlItPHU_aRx5xCzLr78</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>net-legacy-pdf</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>60</v>
+      </c>
+      <c r="E150" t="n">
+        <v>60</v>
+      </c>
+      <c r="F150" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>l3-node-dataservice-management</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>node-dataservice-management</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>29</v>
+      </c>
+      <c r="E151" t="n">
+        <v>29</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>angular-vorwerk-kiwi</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>3985</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3983</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-vorwerk-commissioncalculator_AZFA1y4BgH6yUMlbiAxF</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>wordpress-vorwerk-commissioncalculator</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>87</v>
+      </c>
+      <c r="E153" t="n">
+        <v>87</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-obsolete-socialshare_AYlPO9XN_aRx5xCzLsGu</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>net-obsolete-socialshare</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>26</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26</v>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-vicafe-cms_AYljjnGn_aRx5xCzLsXE</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>net-vicafe-cms</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>886</v>
+      </c>
+      <c r="E155" t="n">
+        <v>886</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-amberg-engr_a64c3db0-724e-449b-8484-e9ad259bcffc</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>react-amberg-engr</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>426</v>
+      </c>
+      <c r="E156" t="n">
+        <v>426</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-berger-website_AZEcIwBhgH6yUMlbiAO0</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>wordpress-berger-website</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>780</v>
+      </c>
+      <c r="E157" t="n">
+        <v>780</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>l3-node-decent-business</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>node-decent-business</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>290</v>
+      </c>
+      <c r="E158" t="n">
+        <v>290</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-fnb-cmsgateway_AYlPbBSy_aRx5xCzLsHq</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>net-fnb-cmsgateway</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>520</v>
+      </c>
+      <c r="E159" t="n">
+        <v>520</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-fnb-ordermanagement_AYlegqt4_aRx5xCzLsQn</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>net-fnb-ordermanagement</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>354</v>
+      </c>
+      <c r="E160" t="n">
+        <v>354</v>
+      </c>
+      <c r="F160" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-urstamm-business_fc8e763c-a5d1-4ac8-abc0-69564a7bebde</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>react-urstamm-business</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1624</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1624</v>
+      </c>
+      <c r="F161" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>l3-net-quotinc-business</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>net-quotinc-business</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>466</v>
+      </c>
+      <c r="E162" t="n">
+        <v>466</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>l3-net-credex-business</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>net-credex-business</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>305</v>
+      </c>
+      <c r="E163" t="n">
+        <v>305</v>
+      </c>
+      <c r="F163" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-pptx_AYk_Szii_aRx5xCzLrzl</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>net-generic-pptx</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>79</v>
+      </c>
+      <c r="F164" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>l3-net-lim-business</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>net-lim-business</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>74</v>
+      </c>
+      <c r="E165" t="n">
+        <v>74</v>
+      </c>
+      <c r="F165" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-support_AYlozvQs_aRx5xCzLsef</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>net-generic-support</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3</v>
+      </c>
+      <c r="F166" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-iam-identity_AYk51cN-_aRx5xCzLrqs</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>net-iam-identity</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>171</v>
+      </c>
+      <c r="E167" t="n">
+        <v>171</v>
+      </c>
+      <c r="F167" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-iam-app_AYkq10NK_aRx5xCzLrlE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>net-iam-app</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>react-ossc-business</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E169" t="n">
+        <v>589</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>-941</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>angular-blocks-configuration</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1490</v>
+      </c>
+      <c r="F170" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-svcms-business_850c748a-7803-4d46-86e9-557a7c2c8d0a</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>angular-svcms-business</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>271</v>
+      </c>
+      <c r="E171" t="n">
+        <v>271</v>
+      </c>
+      <c r="F171" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-buyingcenter_AYldbTns_aRx5xCzLsMP</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>net-generic-buyingcenter</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>375</v>
+      </c>
+      <c r="E172" t="n">
+        <v>375</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-decent-business_AZFAsVmcgH6yUMlbiAuU</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>angular-decent-business</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>678</v>
+      </c>
+      <c r="E173" t="n">
+        <v>678</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-seliseapp-business_AYlOwoKN_aRx5xCzLsEb</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>angular-seliseapp-business</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>375</v>
+      </c>
+      <c r="E174" t="n">
+        <v>375</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>l3-angular-sikuba-engr</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>angular-sikuba-engr</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>842</v>
+      </c>
+      <c r="E175" t="n">
+        <v>842</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-blockchain-magnethub-business_AY0cAABStCiAnIelrJul</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>blockchain-magnethub-business</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-ewopharma-erp_AYq3M7q6_aRx5xCzLxHH</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>net-ewopharma-erp</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1252</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-campaign_AYleIhUz_aRx5xCzLsOX</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>net-generic-campaign</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>187</v>
+      </c>
+      <c r="E178" t="n">
+        <v>187</v>
+      </c>
+      <c r="F178" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-genkiosk-web_AYmG9xwH_aRx5xCzLs0d</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>angular-genkiosk-web</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>272</v>
+      </c>
+      <c r="E179" t="n">
+        <v>272</v>
+      </c>
+      <c r="F179" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-service7000-business_AY3fbnx8QHRMk2aGF-XE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>net-service7000-business</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>126</v>
+      </c>
+      <c r="E180" t="n">
+        <v>126</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-sunrise-business_AYlOHl-i_aRx5xCzLsCG</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>net-sunrise-business</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3</v>
+      </c>
+      <c r="F181" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-fileconverter_AYlI6k_S_aRx5xCzLr9J</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>net-generic-fileconverter</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>13</v>
+      </c>
+      <c r="E182" t="n">
+        <v>13</v>
+      </c>
+      <c r="F182" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-iam-securetoken_AYk-lr0t_aRx5xCzLrwN</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>net-iam-securetoken</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5</v>
+      </c>
+      <c r="F183" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>l3-angular-credex-business</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>angular-credex-business</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>781</v>
+      </c>
+      <c r="E184" t="n">
+        <v>781</v>
+      </c>
+      <c r="F184" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-etl_AYlEVQx1_aRx5xCzLr4K</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>net-generic-etl</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>114</v>
+      </c>
+      <c r="E185" t="n">
+        <v>114</v>
+      </c>
+      <c r="F185" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-sko-business_e7b9e223-449b-4bc5-8d93-706f6e4e7530</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>net-sko-business</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>74</v>
+      </c>
+      <c r="E186" t="n">
+        <v>74</v>
+      </c>
+      <c r="F186" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>l3-angular-lunge-business</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>angular-lunge-business</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>980</v>
+      </c>
+      <c r="E187" t="n">
+        <v>980</v>
+      </c>
+      <c r="F187" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>angular-sln-at</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>12108</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12113</v>
+      </c>
+      <c r="F188" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-legacy-dms_AYmHs6xo_aRx5xCzLs4q</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>net-legacy-dms</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>75</v>
+      </c>
+      <c r="E189" t="n">
+        <v>75</v>
+      </c>
+      <c r="F189" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-pdf_AYlEha_C_aRx5xCzLr4x</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>net-generic-pdf</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>186</v>
+      </c>
+      <c r="E190" t="n">
+        <v>186</v>
+      </c>
+      <c r="F190" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>net-generic-templating</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>93</v>
+      </c>
+      <c r="E191" t="n">
+        <v>93</v>
+      </c>
+      <c r="F191" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-iam-tenant_AYk5eSqV_aRx5xCzLrpZ</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>net-iam-tenant</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-arcintegration_AYlPj6GV_aRx5xCzLsIZ</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>net-generic-arcintegration</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>9</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9</v>
+      </c>
+      <c r="F193" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>l2-angular-blocks-project</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>compose-stg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>angular-blocks-project</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>299</v>
+      </c>
+      <c r="E194" t="n">
+        <v>299</v>
+      </c>
+      <c r="F194" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-keeron-frontend_3b7fe3f5-cc9f-4233-8593-b814b55af18c</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>aws-stg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>react-keeron-frontend</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>2313</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2313</v>
+      </c>
+      <c r="F195" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>angular-delta-mobile</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1827</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>l3-angular-coscomp-business</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>angular-coscomp-business</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>341</v>
+      </c>
+      <c r="E197" t="n">
+        <v>341</v>
+      </c>
+      <c r="F197" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l1-net-pds-graphql_AYk5umpu_aRx5xCzLrqU</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>net-pds-graphql</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>99</v>
+      </c>
+      <c r="E198" t="n">
+        <v>99</v>
+      </c>
+      <c r="F198" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-keeron-frontend_3b7fe3f5-cc9f-4233-8593-b814b55af18c</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>react-keeron-frontend</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2315</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2315</v>
+      </c>
+      <c r="F199" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-coscomp-business_AYsaCp1B_aRx5xCzLytd</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>net-coscomp-business</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>58</v>
+      </c>
+      <c r="E200" t="n">
+        <v>58</v>
+      </c>
+      <c r="F200" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>571</v>
+      </c>
+      <c r="E201" t="n">
+        <v>507</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>l3-node-mail-management</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>node-mail-management</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>8</v>
+      </c>
+      <c r="E202" t="n">
+        <v>8</v>
+      </c>
+      <c r="F202" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-zipper_AYk_VSXk_aRx5xCzLrz3</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>net-generic-zipper</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>8</v>
+      </c>
+      <c r="E203" t="n">
+        <v>8</v>
+      </c>
+      <c r="F203" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>net-sko-crm2.0</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>l3-angular-upload-ipex-business</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>angular-upload-ipex-business</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>259</v>
+      </c>
+      <c r="E205" t="n">
+        <v>259</v>
+      </c>
+      <c r="F205" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-vicafe-eshopsite_086060ef-efda-4f44-bcbd-7416a32a6efc</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>wordpress-vicafe-eshopsite</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1305</v>
+      </c>
+      <c r="F206" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code_Smell_comparison.xlsx
+++ b/Code_Smell_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Code Smell (March)</t>
+          <t>Code Smell (first)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Code Smell (April)</t>
+          <t>Code Smell (second)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -500,85 +500,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>571</v>
+        <v>12643</v>
       </c>
       <c r="E2" t="n">
-        <v>507</v>
+        <v>18094</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-64</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
+          <t>angular-mycareergate-hrm</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1398</v>
+        <v>2404</v>
       </c>
       <c r="E3" t="n">
-        <v>1441</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>43</v>
+        <v>3295</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14087</v>
+        <v>662</v>
       </c>
       <c r="E4" t="n">
-        <v>13906</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>-181</v>
+        <v>637</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,203 +588,645 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-crm-sko</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9951</v>
+        <v>3924</v>
       </c>
       <c r="E5" t="n">
-        <v>9974</v>
+        <v>3720</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>23</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3963</v>
+        <v>4489</v>
       </c>
       <c r="E6" t="n">
-        <v>3924</v>
+        <v>6219</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-39</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
+          <t>angular-crm-sko</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1827</v>
+        <v>9974</v>
       </c>
       <c r="E7" t="n">
-        <v>1802</v>
+        <v>13913</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-25</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>react-ossc-business</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1530</v>
+        <v>9914</v>
       </c>
       <c r="E8" t="n">
-        <v>589</v>
+        <v>14802</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-941</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5964</v>
+        <v>597</v>
       </c>
       <c r="E9" t="n">
-        <v>5987</v>
+        <v>574</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-laravel-vicafe-erp</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>laravel-vicafe-erp</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3329</v>
+        <v>2100</v>
       </c>
       <c r="E10" t="n">
-        <v>3373</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44</v>
+        <v>2167</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2721</v>
+        <v>399</v>
       </c>
       <c r="E11" t="n">
-        <v>2649</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>-72</v>
+        <v>236</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>wordpress-ibcchur-website</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5711</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5803</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>angular-gensubway-backoffice</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2327</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3479</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>angular-selisehr-hrm</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2649</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3685</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>angular-vorwerk-kiwi</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3983</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5136</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>net-generic-templating</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>93</v>
+      </c>
+      <c r="E16" t="n">
+        <v>133</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>angular-magnethub-business</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>994</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>745</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1513</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>angular-delta-erp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>13906</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18942</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>angular-addexpert-hrm</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4194</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6094</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>angular-sln-at</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>12113</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16666</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>angular-delta-mobile</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2717</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-fccz</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>angular-sln-fccz</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>15137</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21607</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>l3-angular-clm-business</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>angular-clm-business</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1441</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4741</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>l3-net-delta-erp</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>stg-aks</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>net-delta-erp</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D25" t="n">
         <v>1688</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>-112</v>
+      <c r="E25" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>react-ronreload-frontend</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5987</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6024</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>l3-angular-lunge-business</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>angular-lunge-business</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>980</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>laravel-ronreload-backend</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>18799</v>
+      </c>
+      <c r="E28" t="n">
+        <v>19202</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>angular-ipex-upload</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2945</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3733</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code_Smell_comparison.xlsx
+++ b/Code_Smell_comparison.xlsx
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,23 +510,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12643</v>
+        <v>2100</v>
       </c>
       <c r="E2" t="n">
-        <v>18094</v>
+        <v>2167</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5451</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,43 +536,43 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-mycareergate-hrm</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2404</v>
+        <v>745</v>
       </c>
       <c r="E3" t="n">
-        <v>3295</v>
+        <v>1513</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>891</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>662</v>
+        <v>4489</v>
       </c>
       <c r="E4" t="n">
-        <v>637</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>-25</v>
+        <v>6219</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1730</v>
       </c>
     </row>
     <row r="5">
@@ -604,59 +604,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-ipex-business</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4489</v>
+        <v>12113</v>
       </c>
       <c r="E6" t="n">
-        <v>6219</v>
+        <v>16666</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1730</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-crm-sko</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9974</v>
+        <v>13906</v>
       </c>
       <c r="E7" t="n">
-        <v>13913</v>
+        <v>18942</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3939</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>l3-angular-lunge-business</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,49 +666,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>angular-lunge-business</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9914</v>
+        <v>980</v>
       </c>
       <c r="E8" t="n">
-        <v>14802</v>
+        <v>1640</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>4888</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-net-ipex-business</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>net-ipex-business</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="E9" t="n">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-23</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -718,75 +718,75 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>net-finsy-business</t>
+          <t>angular-magnethub-business</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2100</v>
+        <v>994</v>
       </c>
       <c r="E10" t="n">
-        <v>2167</v>
+        <v>1650</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>67</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l3-net-amberg-engr</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>net-amberg-engr</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>399</v>
+        <v>5711</v>
       </c>
       <c r="E11" t="n">
-        <v>236</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-163</v>
+        <v>5803</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>angular-delta-mobile</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5711</v>
+        <v>1802</v>
       </c>
       <c r="E12" t="n">
-        <v>5803</v>
+        <v>2717</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>92</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -796,23 +796,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>angular-crm-sko</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2327</v>
+        <v>9974</v>
       </c>
       <c r="E13" t="n">
-        <v>3479</v>
+        <v>13913</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1152</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,49 +822,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>angular-ipex-upload</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2649</v>
+        <v>2945</v>
       </c>
       <c r="E14" t="n">
-        <v>3685</v>
+        <v>3733</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1036</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+          <t>l3-net-delta-erp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>angular-vorwerk-kiwi</t>
+          <t>net-delta-erp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3983</v>
+        <v>1688</v>
       </c>
       <c r="E15" t="n">
-        <v>5136</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1153</v>
+        <v>1532</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -874,23 +874,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>net-generic-templating</t>
+          <t>angular-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>3983</v>
       </c>
       <c r="E16" t="n">
-        <v>133</v>
+        <v>5136</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>40</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -900,75 +900,75 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>angular-magnethub-business</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>994</v>
+        <v>2327</v>
       </c>
       <c r="E17" t="n">
-        <v>1650</v>
+        <v>3479</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>656</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>745</v>
+        <v>12643</v>
       </c>
       <c r="E18" t="n">
-        <v>1513</v>
+        <v>18094</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>768</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13906</v>
+        <v>399</v>
       </c>
       <c r="E19" t="n">
-        <v>18942</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>5036</v>
+        <v>236</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+          <t>l3-angular-clm-business</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -978,49 +978,49 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>angular-addexpert-hrm</t>
+          <t>angular-clm-business</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4194</v>
+        <v>1441</v>
       </c>
       <c r="E20" t="n">
-        <v>6094</v>
+        <v>4741</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12113</v>
+        <v>18799</v>
       </c>
       <c r="E21" t="n">
-        <v>16666</v>
+        <v>19202</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>4553</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1030,49 +1030,49 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1802</v>
+        <v>597</v>
       </c>
       <c r="E22" t="n">
-        <v>2717</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>915</v>
+        <v>574</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>angular-mycareergate-hrm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15137</v>
+        <v>2404</v>
       </c>
       <c r="E23" t="n">
-        <v>21607</v>
+        <v>3295</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>6470</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1082,75 +1082,75 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
+          <t>net-generic-templating</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1441</v>
+        <v>93</v>
       </c>
       <c r="E24" t="n">
-        <v>4741</v>
+        <v>133</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>3300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>l3-net-delta-erp</t>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>net-delta-erp</t>
+          <t>react-ronreload-frontend</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1688</v>
+        <v>5987</v>
       </c>
       <c r="E25" t="n">
-        <v>1532</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-156</v>
+        <v>6024</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>angular-addexpert-hrm</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5987</v>
+        <v>4194</v>
       </c>
       <c r="E26" t="n">
-        <v>6024</v>
+        <v>6094</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>37</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>l3-angular-lunge-business</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1160,49 +1160,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>angular-lunge-business</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>980</v>
+        <v>9914</v>
       </c>
       <c r="E27" t="n">
-        <v>1640</v>
+        <v>14802</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>660</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18799</v>
+        <v>15137</v>
       </c>
       <c r="E28" t="n">
-        <v>19202</v>
+        <v>21607</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>403</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>angular-ipex-upload</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2945</v>
+        <v>2649</v>
       </c>
       <c r="E29" t="n">
-        <v>3733</v>
+        <v>3685</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>788</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/Code_Smell_comparison.xlsx
+++ b/Code_Smell_comparison.xlsx
@@ -500,33 +500,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>net-finsy-business</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2100</v>
+        <v>13906</v>
       </c>
       <c r="E2" t="n">
-        <v>2167</v>
+        <v>18942</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>67</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,49 +536,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>angular-mycareergate-hrm</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>745</v>
+        <v>2404</v>
       </c>
       <c r="E3" t="n">
-        <v>1513</v>
+        <v>3295</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>768</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>angular-ipex-business</t>
+          <t>angular-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4489</v>
+        <v>3983</v>
       </c>
       <c r="E4" t="n">
-        <v>6219</v>
+        <v>5136</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1730</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,205 +588,205 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3924</v>
+        <v>12113</v>
       </c>
       <c r="E5" t="n">
-        <v>3720</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-204</v>
+        <v>16666</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>angular-delta-mobile</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12113</v>
+        <v>1802</v>
       </c>
       <c r="E6" t="n">
-        <v>16666</v>
+        <v>2717</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4553</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-angular-lunge-business</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>angular-lunge-business</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13906</v>
+        <v>980</v>
       </c>
       <c r="E7" t="n">
-        <v>18942</v>
+        <v>1640</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5036</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-angular-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>angular-lunge-business</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>980</v>
+        <v>745</v>
       </c>
       <c r="E8" t="n">
-        <v>1640</v>
+        <v>1513</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>660</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>react-ronreload-frontend</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>662</v>
+        <v>5987</v>
       </c>
       <c r="E9" t="n">
-        <v>637</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-25</v>
+        <v>6024</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>angular-magnethub-business</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>994</v>
+        <v>2649</v>
       </c>
       <c r="E10" t="n">
-        <v>1650</v>
+        <v>3685</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>656</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>net-generic-templating</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5711</v>
+        <v>93</v>
       </c>
       <c r="E11" t="n">
-        <v>5803</v>
+        <v>133</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1802</v>
+        <v>5711</v>
       </c>
       <c r="E12" t="n">
-        <v>2717</v>
+        <v>5803</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>915</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -796,23 +796,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>angular-crm-sko</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9974</v>
+        <v>2327</v>
       </c>
       <c r="E13" t="n">
-        <v>13913</v>
+        <v>3479</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>3939</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,49 +822,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-ipex-upload</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2945</v>
+        <v>4489</v>
       </c>
       <c r="E14" t="n">
-        <v>3733</v>
+        <v>6219</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>788</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-net-delta-erp</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net-delta-erp</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1688</v>
+        <v>2100</v>
       </c>
       <c r="E15" t="n">
-        <v>1532</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-156</v>
+        <v>2167</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -874,23 +874,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>angular-vorwerk-kiwi</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3983</v>
+        <v>15137</v>
       </c>
       <c r="E16" t="n">
-        <v>5136</v>
+        <v>21607</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1153</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -900,49 +900,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2327</v>
+        <v>9914</v>
       </c>
       <c r="E17" t="n">
-        <v>3479</v>
+        <v>14802</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1152</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>l3-net-delta-erp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>net-delta-erp</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12643</v>
+        <v>1688</v>
       </c>
       <c r="E18" t="n">
-        <v>18094</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>5451</v>
+        <v>1532</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>l3-net-amberg-engr</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -952,23 +952,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>net-amberg-engr</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>399</v>
+        <v>12643</v>
       </c>
       <c r="E19" t="n">
-        <v>236</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-163</v>
+        <v>18094</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>5451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -978,43 +978,43 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
+          <t>angular-magnethub-business</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1441</v>
+        <v>994</v>
       </c>
       <c r="E20" t="n">
-        <v>4741</v>
+        <v>1650</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>3300</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>angular-crm-sko</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18799</v>
+        <v>9974</v>
       </c>
       <c r="E21" t="n">
-        <v>19202</v>
+        <v>13913</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>403</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="22">
@@ -1046,85 +1046,85 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>angular-mycareergate-hrm</t>
+          <t>angular-addexpert-hrm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2404</v>
+        <v>4194</v>
       </c>
       <c r="E23" t="n">
-        <v>3295</v>
+        <v>6094</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>891</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>net-generic-templating</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>93</v>
+        <v>18799</v>
       </c>
       <c r="E24" t="n">
-        <v>133</v>
+        <v>19202</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>40</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>l3-angular-clm-business</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>angular-clm-business</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5987</v>
+        <v>1441</v>
       </c>
       <c r="E25" t="n">
-        <v>6024</v>
+        <v>4741</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>37</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1134,49 +1134,49 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>angular-addexpert-hrm</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4194</v>
+        <v>3924</v>
       </c>
       <c r="E26" t="n">
-        <v>6094</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>1900</v>
+        <v>3720</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>angular-ipex-upload</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9914</v>
+        <v>2945</v>
       </c>
       <c r="E27" t="n">
-        <v>14802</v>
+        <v>3733</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>4888</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1186,43 +1186,43 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15137</v>
+        <v>399</v>
       </c>
       <c r="E28" t="n">
-        <v>21607</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>6470</v>
+        <v>236</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2649</v>
+        <v>662</v>
       </c>
       <c r="E29" t="n">
-        <v>3685</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>1036</v>
+        <v>637</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-25</v>
       </c>
     </row>
   </sheetData>

--- a/Code_Smell_comparison.xlsx
+++ b/Code_Smell_comparison.xlsx
@@ -500,33 +500,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13906</v>
+        <v>15137</v>
       </c>
       <c r="E2" t="n">
-        <v>18942</v>
+        <v>21607</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5036</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,23 +536,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-mycareergate-hrm</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2404</v>
+        <v>745</v>
       </c>
       <c r="E3" t="n">
-        <v>3295</v>
+        <v>1513</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>891</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,23 +562,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>angular-vorwerk-kiwi</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3983</v>
+        <v>9914</v>
       </c>
       <c r="E4" t="n">
-        <v>5136</v>
+        <v>14802</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1153</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,153 +588,153 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12113</v>
+        <v>12643</v>
       </c>
       <c r="E5" t="n">
-        <v>16666</v>
+        <v>18094</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>4553</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1802</v>
+        <v>2327</v>
       </c>
       <c r="E6" t="n">
-        <v>2717</v>
+        <v>3479</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>915</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-angular-lunge-business</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-lunge-business</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>980</v>
+        <v>4489</v>
       </c>
       <c r="E7" t="n">
-        <v>1640</v>
+        <v>6219</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>660</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>745</v>
+        <v>12113</v>
       </c>
       <c r="E8" t="n">
-        <v>1513</v>
+        <v>16666</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>768</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5987</v>
+        <v>2649</v>
       </c>
       <c r="E9" t="n">
-        <v>6024</v>
+        <v>3685</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>37</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2649</v>
+        <v>662</v>
       </c>
       <c r="E10" t="n">
-        <v>3685</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1036</v>
+        <v>637</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>net-generic-templating</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="E11" t="n">
-        <v>133</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>40</v>
+        <v>236</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>l3-net-delta-erp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>net-delta-erp</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5711</v>
+        <v>1688</v>
       </c>
       <c r="E12" t="n">
-        <v>5803</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>92</v>
+        <v>1532</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -796,49 +796,49 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2327</v>
+        <v>2100</v>
       </c>
       <c r="E13" t="n">
-        <v>3479</v>
+        <v>2167</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1152</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-ipex-business</t>
+          <t>angular-addexpert-hrm</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4489</v>
+        <v>4194</v>
       </c>
       <c r="E14" t="n">
-        <v>6219</v>
+        <v>6094</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1730</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -848,23 +848,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net-finsy-business</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2100</v>
+        <v>3924</v>
       </c>
       <c r="E15" t="n">
-        <v>2167</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>67</v>
+        <v>3720</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -874,23 +874,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>angular-crm-sko</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15137</v>
+        <v>9974</v>
       </c>
       <c r="E16" t="n">
-        <v>21607</v>
+        <v>13913</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>6470</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>l3-angular-lunge-business</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -900,127 +900,127 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>angular-lunge-business</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9914</v>
+        <v>980</v>
       </c>
       <c r="E17" t="n">
-        <v>14802</v>
+        <v>1640</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>4888</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>l3-net-delta-erp</t>
+          <t>SELISEdigitalplatforms_l2-net-generic-templating_AYlEkScv_aRx5xCzLr5J</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>net-delta-erp</t>
+          <t>net-generic-templating</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1688</v>
+        <v>93</v>
       </c>
       <c r="E18" t="n">
-        <v>1532</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-156</v>
+        <v>133</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>react-ronreload-frontend</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12643</v>
+        <v>5987</v>
       </c>
       <c r="E19" t="n">
-        <v>18094</v>
+        <v>6024</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>5451</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>angular-magnethub-business</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>994</v>
+        <v>5711</v>
       </c>
       <c r="E20" t="n">
-        <v>1650</v>
+        <v>5803</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>656</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>angular-crm-sko</t>
+          <t>angular-ipex-upload</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9974</v>
+        <v>2945</v>
       </c>
       <c r="E21" t="n">
-        <v>13913</v>
+        <v>3733</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>3939</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>l3-net-ipex-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1030,75 +1030,75 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>net-ipex-business</t>
+          <t>angular-delta-mobile</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>597</v>
+        <v>1802</v>
       </c>
       <c r="E22" t="n">
-        <v>574</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-23</v>
+        <v>2717</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>angular-addexpert-hrm</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4194</v>
+        <v>13906</v>
       </c>
       <c r="E23" t="n">
-        <v>6094</v>
+        <v>18942</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1900</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>angular-magnethub-business</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18799</v>
+        <v>994</v>
       </c>
       <c r="E24" t="n">
-        <v>19202</v>
+        <v>1650</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>403</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1108,121 +1108,121 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
+          <t>angular-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1441</v>
+        <v>3983</v>
       </c>
       <c r="E25" t="n">
-        <v>4741</v>
+        <v>5136</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>3300</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3924</v>
+        <v>597</v>
       </c>
       <c r="E26" t="n">
-        <v>3720</v>
+        <v>574</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-204</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+          <t>l3-angular-clm-business</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>angular-ipex-upload</t>
+          <t>angular-clm-business</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2945</v>
+        <v>1441</v>
       </c>
       <c r="E27" t="n">
-        <v>3733</v>
+        <v>4741</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>788</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>l3-net-amberg-engr</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>net-amberg-engr</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>399</v>
+        <v>18799</v>
       </c>
       <c r="E28" t="n">
-        <v>236</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-163</v>
+        <v>19202</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>angular-mycareergate-hrm</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>662</v>
+        <v>2404</v>
       </c>
       <c r="E29" t="n">
-        <v>637</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>-25</v>
+        <v>3295</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
